--- a/Watches.xlsx
+++ b/Watches.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Polar H7 Bluetooth Smart Heart Rate Chest Transmitter</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>B06WV8NGTN</t>
+  </si>
+  <si>
+    <t>must find</t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +145,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,10 +178,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,7 +488,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +534,7 @@
       <c r="B4" s="2">
         <v>499.99</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -677,6 +688,9 @@
       <c r="B18" s="2">
         <v>599.99</v>
       </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -684,6 +698,9 @@
       </c>
       <c r="B19" s="2">
         <v>149.94999999999999</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
